--- a/biology/Botanique/Actinotus/Actinotus.xlsx
+++ b/biology/Botanique/Actinotus/Actinotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinotus est un genre de plantes à fleurs de la famille des Apiaceae et de la sous-famille des Mackinlayoideae, comprenant vingt espèces toutes originaires d'Australie et de Nouvelle-Zélande.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre comprend les vingt espèces suivantes[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre comprend les vingt espèces suivantes, :
 Actinotus bellidioides (Hook.fil.) Benth.
 Actinotus forsythii Maiden &amp; Betche
 Actinotus gibbonsii F.Muell.
@@ -561,10 +575,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce taxon est Actinotus, choisi en 1804 par le botaniste français Jacques-Julien Houtou de La Billardière, avec Actinotus helianthi comme espèce type[3].
-Les genres suivants sont synonymes de Actinotus[1],[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce taxon est Actinotus, choisi en 1804 par le botaniste français Jacques-Julien Houtou de La Billardière, avec Actinotus helianthi comme espèce type.
+Les genres suivants sont synonymes de Actinotus, :
 Eriocalia Sm.
 Hemiphues Hook.f.
 Holotome Endl.</t>
